--- a/timeSorted.xlsx
+++ b/timeSorted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunes\Documents\C++\Lab3_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7108EE34-D66E-43CA-903C-4DF691EEA715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6663C76D-0113-4E83-887E-68B6B6E20E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sorted" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,218 +678,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>timeSorted!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bubble sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>timeSorted!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeSorted!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>720.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>890.596</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600.71</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2359.3000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3250.84</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4440.8900000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5725.67</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7474.63</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9758.85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9065-48D4-A218-8A194C8C9A7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>timeSorted!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insertion sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>timeSorted!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeSorted!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>78.122299999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>203.11799999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>275.04399999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>438.39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640.60400000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>902.30100000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1176.69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1640.57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1852.23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9065-48D4-A218-8A194C8C9A7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>timeSorted!$D$1</c:f>
@@ -965,10 +755,10 @@
                   <c:v>31.2502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.6248</c:v>
+                  <c:v>31.6248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.248200000000001</c:v>
+                  <c:v>31.9482</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>46.875799999999998</c:v>
@@ -977,7 +767,7 @@
                   <c:v>46.877099999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.872999999999998</c:v>
+                  <c:v>46.893000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>62.498100000000001</c:v>
@@ -989,216 +779,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9065-48D4-A218-8A194C8C9A7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>timeSorted!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>timeSorted!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeSorted!$E$2:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>328.113</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>765.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1203.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2093.6799999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2803.76</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3624.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5055.67</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6095.77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7920.62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9065-48D4-A218-8A194C8C9A7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>timeSorted!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Counting sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>timeSorted!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeSorted!$F$2:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>156.245</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>249.99199999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>326.14100000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>593.73099999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>743.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>944.21900000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1235.6199999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1566.99</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2283.7600000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9065-48D4-A218-8A194C8C9A7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1399,7 +979,404 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>timeSorted!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>timeSorted!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>timeSorted!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.6244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.624000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.2502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.6248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.9482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.875799999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.877099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.498100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3A6-45A9-892D-9C8E7357E119}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1687917920"/>
+        <c:axId val="1687919168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1687917920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687919168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1687919168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687917920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1955,11 +1932,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1996,6 +2489,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9828398F-0440-40F4-A56A-B63354B6A34F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2295,11 +2829,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,7 +2933,7 @@
         <v>438.39</v>
       </c>
       <c r="D5">
-        <v>15.6248</v>
+        <v>31.6248</v>
       </c>
       <c r="E5">
         <v>2093.6799999999998</v>
@@ -2419,7 +2953,7 @@
         <v>640.60400000000004</v>
       </c>
       <c r="D6">
-        <v>31.248200000000001</v>
+        <v>31.9482</v>
       </c>
       <c r="E6">
         <v>2803.76</v>
@@ -2479,7 +3013,7 @@
         <v>1640.57</v>
       </c>
       <c r="D9">
-        <v>46.872999999999998</v>
+        <v>46.893000000000001</v>
       </c>
       <c r="E9">
         <v>6095.77</v>
@@ -2510,5 +3044,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>